--- a/pic_making/focus_train_excels/merged-joint.xlsx
+++ b/pic_making/focus_train_excels/merged-joint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="purified1" sheetId="1" state="visible" r:id="rId2"/>
@@ -4873,8 +4873,8 @@
   </sheetPr>
   <dimension ref="A1:L784"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="186" sqref="E2 E4:E7 E9:E10 E14:E15 E18 E21:E24 E28:E29 E36 E38:E41 E44:E45 E47 E52 E54:E55 E57:E58 E61:E63 E65 E67:E68 E70 E72:E74 E77:E83 E90:E91 E94 E96 E101:E103 E107 E109:E110 E117 E120:E123 E127 E129:E130 E133:E134 E137:E140 E142:E144 E147:E150 E152:E154 E156 E158 E162 E165:E171 E174:E176 E178:E179 E183 E185:E186 E188 E190:E195 E202 E204 E206 E210 E212 E214 E216:E218 E220:E223 E225 E228 E231:E232 E241:E242 E246:E247 E249 E252 E256 E261 E264:E265 E267 E269:E270 E272:E273 E275 E278:E281 E283:E284 E286:E287 E290 E293 E296 E298:E299 E301 E303 E306:E308 E310:E312 E317 E320:E321 E323:E324 E330:E333 E337 E345 E347:E348 E352 E359 E367:E368 E372:E373 E377 E390:E391 E396:E397 E404 E410 E412:E415 E418 E420 E422 E425:E426 E430 E432:E433 E435 E439:E440 E447:E449 E455:E457 E459 E462 E464 E466 E468 E470 E472:E473 E480 E483 E486 E490 E492:E493 E497:E498 E502:E503 E510:E513 E516 E523:E524 E529:E530 E534 E539:E541 E543 E545:E547 E550 E552:E554 E556 E559 E563:E566 E568:E570 E577:E578 E581 E587 E589:E591 E595:E596 E598:E600 E607:E609 E611 E613:E614 E616:E617 E625 E628 E631 E633 E644:E645 E651:E653 E655:E657 E659 E662 E666 E668 E670 E673 E676:E679 E681:E682 E684 E689:E691 E694 E696 E698 E705:E706 E711 E718 E720 E722 E724 E734:E735 E737:E739 E741 E743 E746:E747 E749 E754 E756 E758 E761 E764 E767 E769 E772 E774 E778 E780:E783 E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P77" activeCellId="0" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4969,7 +4969,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -5235,7 +5235,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -5387,7 +5387,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -5501,7 +5501,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -5539,7 +5539,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -5729,7 +5729,7 @@
         <v>55</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         <v>59</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0.8</v>
@@ -5881,7 +5881,7 @@
         <v>63</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>67</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -6185,7 +6185,7 @@
         <v>79</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
@@ -6299,7 +6299,7 @@
         <v>85</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>1</v>
@@ -6337,7 +6337,7 @@
         <v>87</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>1</v>
@@ -6375,7 +6375,7 @@
         <v>89</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1</v>
@@ -6527,7 +6527,7 @@
         <v>97</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>101</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
@@ -6907,7 +6907,7 @@
         <v>117</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1</v>
@@ -7021,7 +7021,7 @@
         <v>123</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
@@ -7249,7 +7249,7 @@
         <v>135</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
@@ -7401,7 +7401,7 @@
         <v>143</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
@@ -7591,7 +7591,7 @@
         <v>153</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>1</v>
@@ -7629,7 +7629,7 @@
         <v>155</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>175</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>1</v>
@@ -8161,7 +8161,7 @@
         <v>183</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>1</v>
@@ -8275,7 +8275,7 @@
         <v>189</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>0.833333333333333</v>
@@ -8427,7 +8427,7 @@
         <v>197</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>1</v>
@@ -8503,7 +8503,7 @@
         <v>201</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>1</v>
@@ -8579,7 +8579,7 @@
         <v>205</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>0.7</v>
@@ -8617,7 +8617,7 @@
         <v>207</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>1</v>
@@ -8769,7 +8769,7 @@
         <v>215</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>217</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>1</v>
@@ -9111,7 +9111,7 @@
         <v>233</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>1</v>
@@ -9453,7 +9453,7 @@
         <v>251</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>1</v>
@@ -9491,7 +9491,7 @@
         <v>253</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>1</v>
@@ -9567,7 +9567,7 @@
         <v>257</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>1</v>
@@ -9681,7 +9681,7 @@
         <v>263</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" s="0" t="n">
         <v>1</v>
@@ -9757,7 +9757,7 @@
         <v>267</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>273</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" s="0" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         <v>275</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" s="0" t="n">
         <v>1</v>
@@ -9947,7 +9947,7 @@
         <v>277</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" s="0" t="n">
         <v>1</v>
@@ -10137,7 +10137,7 @@
         <v>287</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" s="0" t="n">
         <v>1</v>
@@ -10175,7 +10175,7 @@
         <v>289</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" s="0" t="n">
         <v>1</v>
@@ -10213,7 +10213,7 @@
         <v>291</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141" s="0" t="n">
         <v>0.8</v>
@@ -10251,7 +10251,7 @@
         <v>293</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>1</v>
@@ -10289,7 +10289,7 @@
         <v>295</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>1</v>
@@ -10327,7 +10327,7 @@
         <v>297</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" s="0" t="n">
         <v>1</v>
@@ -10365,7 +10365,7 @@
         <v>299</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" s="0" t="n">
         <v>1</v>
@@ -10441,7 +10441,7 @@
         <v>303</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>1</v>
@@ -10593,7 +10593,7 @@
         <v>311</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" s="0" t="n">
         <v>1</v>
@@ -10669,7 +10669,7 @@
         <v>315</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F153" s="0" t="n">
         <v>1</v>
@@ -10783,7 +10783,7 @@
         <v>321</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" s="0" t="n">
         <v>1</v>
@@ -11087,7 +11087,7 @@
         <v>337</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>1</v>
@@ -11125,7 +11125,7 @@
         <v>339</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F165" s="0" t="n">
         <v>1</v>
@@ -11163,7 +11163,7 @@
         <v>341</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" s="0" t="n">
         <v>1</v>
@@ -11201,7 +11201,7 @@
         <v>343</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F167" s="0" t="n">
         <v>1</v>
@@ -11391,7 +11391,7 @@
         <v>353</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" s="0" t="n">
         <v>1</v>
@@ -11467,7 +11467,7 @@
         <v>357</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" s="0" t="n">
         <v>1</v>
@@ -11505,7 +11505,7 @@
         <v>359</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F175" s="0" t="n">
         <v>1</v>
@@ -11733,7 +11733,7 @@
         <v>371</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181" s="0" t="n">
         <v>1</v>
@@ -11809,7 +11809,7 @@
         <v>375</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" s="0" t="n">
         <v>1</v>
@@ -11847,7 +11847,7 @@
         <v>377</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" s="0" t="n">
         <v>1</v>
@@ -11923,7 +11923,7 @@
         <v>381</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186" s="0" t="n">
         <v>1</v>
@@ -11999,7 +11999,7 @@
         <v>385</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F188" s="0" t="n">
         <v>1</v>
@@ -12075,7 +12075,7 @@
         <v>389</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" s="0" t="n">
         <v>1</v>
@@ -12265,7 +12265,7 @@
         <v>399</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>1</v>
@@ -12455,7 +12455,7 @@
         <v>409</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200" s="0" t="n">
         <v>1</v>
@@ -12493,7 +12493,7 @@
         <v>411</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F201" s="0" t="n">
         <v>1</v>
@@ -12607,7 +12607,7 @@
         <v>417</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F204" s="0" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         <v>419</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F205" s="0" t="n">
         <v>1</v>
@@ -12683,7 +12683,7 @@
         <v>421</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F206" s="0" t="n">
         <v>1</v>
@@ -12873,7 +12873,7 @@
         <v>431</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F211" s="0" t="n">
         <v>1</v>
@@ -13177,7 +13177,7 @@
         <v>447</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F219" s="0" t="n">
         <v>1</v>
@@ -13291,7 +13291,7 @@
         <v>453</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F222" s="0" t="n">
         <v>1</v>
@@ -13329,7 +13329,7 @@
         <v>455</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F223" s="0" t="n">
         <v>1</v>
@@ -13405,7 +13405,7 @@
         <v>459</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F225" s="0" t="n">
         <v>1</v>
@@ -13443,7 +13443,7 @@
         <v>461</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F226" s="0" t="n">
         <v>1</v>
@@ -13519,7 +13519,7 @@
         <v>465</v>
       </c>
       <c r="E228" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F228" s="0" t="n">
         <v>0.666666666666667</v>
@@ -13709,7 +13709,7 @@
         <v>475</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F233" s="0" t="n">
         <v>1</v>
@@ -14279,7 +14279,7 @@
         <v>505</v>
       </c>
       <c r="E248" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F248" s="0" t="n">
         <v>1</v>
@@ -14317,7 +14317,7 @@
         <v>507</v>
       </c>
       <c r="E249" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F249" s="0" t="n">
         <v>1</v>
@@ -14431,7 +14431,7 @@
         <v>513</v>
       </c>
       <c r="E252" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F252" s="0" t="n">
         <v>1</v>
@@ -14583,7 +14583,7 @@
         <v>521</v>
       </c>
       <c r="E256" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F256" s="0" t="n">
         <v>1</v>
@@ -15001,7 +15001,7 @@
         <v>543</v>
       </c>
       <c r="E267" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F267" s="0" t="n">
         <v>1</v>
@@ -15457,7 +15457,7 @@
         <v>567</v>
       </c>
       <c r="E279" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F279" s="0" t="n">
         <v>1</v>
@@ -15647,7 +15647,7 @@
         <v>577</v>
       </c>
       <c r="E284" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F284" s="0" t="n">
         <v>1</v>
@@ -15723,7 +15723,7 @@
         <v>581</v>
       </c>
       <c r="E286" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F286" s="0" t="n">
         <v>0.777777777777778</v>
@@ -15761,7 +15761,7 @@
         <v>583</v>
       </c>
       <c r="E287" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F287" s="0" t="n">
         <v>1</v>
@@ -15799,7 +15799,7 @@
         <v>585</v>
       </c>
       <c r="E288" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F288" s="0" t="n">
         <v>1</v>
@@ -15837,7 +15837,7 @@
         <v>587</v>
       </c>
       <c r="E289" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F289" s="0" t="n">
         <v>1</v>
@@ -15951,7 +15951,7 @@
         <v>593</v>
       </c>
       <c r="E292" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F292" s="0" t="n">
         <v>1</v>
@@ -15989,7 +15989,7 @@
         <v>595</v>
       </c>
       <c r="E293" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F293" s="0" t="n">
         <v>1</v>
@@ -16065,7 +16065,7 @@
         <v>599</v>
       </c>
       <c r="E295" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F295" s="0" t="n">
         <v>1</v>
@@ -16103,7 +16103,7 @@
         <v>601</v>
       </c>
       <c r="E296" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F296" s="0" t="n">
         <v>1</v>
@@ -16179,7 +16179,7 @@
         <v>605</v>
       </c>
       <c r="E298" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F298" s="0" t="n">
         <v>1</v>
@@ -16217,7 +16217,7 @@
         <v>607</v>
       </c>
       <c r="E299" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F299" s="0" t="n">
         <v>1</v>
@@ -16293,7 +16293,7 @@
         <v>611</v>
       </c>
       <c r="E301" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F301" s="0" t="n">
         <v>1</v>
@@ -16483,7 +16483,7 @@
         <v>621</v>
       </c>
       <c r="E306" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F306" s="0" t="n">
         <v>1</v>
@@ -16559,7 +16559,7 @@
         <v>625</v>
       </c>
       <c r="E308" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F308" s="0" t="n">
         <v>1</v>
@@ -16711,7 +16711,7 @@
         <v>633</v>
       </c>
       <c r="E312" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F312" s="0" t="n">
         <v>1</v>
@@ -16787,7 +16787,7 @@
         <v>637</v>
       </c>
       <c r="E314" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F314" s="0" t="n">
         <v>1</v>
@@ -16825,7 +16825,7 @@
         <v>639</v>
       </c>
       <c r="E315" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F315" s="0" t="n">
         <v>1</v>
@@ -16939,7 +16939,7 @@
         <v>645</v>
       </c>
       <c r="E318" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F318" s="0" t="n">
         <v>1</v>
@@ -17015,7 +17015,7 @@
         <v>649</v>
       </c>
       <c r="E320" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F320" s="0" t="n">
         <v>1</v>
@@ -17053,7 +17053,7 @@
         <v>651</v>
       </c>
       <c r="E321" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F321" s="0" t="n">
         <v>1</v>
@@ -17433,7 +17433,7 @@
         <v>671</v>
       </c>
       <c r="E331" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F331" s="0" t="n">
         <v>1</v>
@@ -17547,7 +17547,7 @@
         <v>677</v>
       </c>
       <c r="E334" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F334" s="0" t="n">
         <v>1</v>
@@ -17623,7 +17623,7 @@
         <v>681</v>
       </c>
       <c r="E336" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F336" s="0" t="n">
         <v>1</v>
@@ -17775,7 +17775,7 @@
         <v>689</v>
       </c>
       <c r="E340" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F340" s="0" t="n">
         <v>1</v>
@@ -17889,7 +17889,7 @@
         <v>695</v>
       </c>
       <c r="E343" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F343" s="0" t="n">
         <v>1</v>
@@ -18041,7 +18041,7 @@
         <v>703</v>
       </c>
       <c r="E347" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F347" s="0" t="n">
         <v>1</v>
@@ -18269,7 +18269,7 @@
         <v>715</v>
       </c>
       <c r="E353" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F353" s="0" t="n">
         <v>1</v>
@@ -18801,7 +18801,7 @@
         <v>743</v>
       </c>
       <c r="E367" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F367" s="0" t="n">
         <v>1</v>
@@ -18839,7 +18839,7 @@
         <v>745</v>
       </c>
       <c r="E368" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F368" s="0" t="n">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>751</v>
       </c>
       <c r="E371" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F371" s="0" t="n">
         <v>1</v>
@@ -19029,7 +19029,7 @@
         <v>755</v>
       </c>
       <c r="E373" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F373" s="0" t="n">
         <v>1</v>
@@ -19295,7 +19295,7 @@
         <v>769</v>
       </c>
       <c r="E380" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F380" s="0" t="n">
         <v>1</v>
@@ -19447,7 +19447,7 @@
         <v>777</v>
       </c>
       <c r="E384" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F384" s="0" t="n">
         <v>1</v>
@@ -19561,7 +19561,7 @@
         <v>783</v>
       </c>
       <c r="E387" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F387" s="0" t="n">
         <v>1</v>
@@ -19637,7 +19637,7 @@
         <v>787</v>
       </c>
       <c r="E389" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F389" s="0" t="n">
         <v>1</v>
@@ -19751,7 +19751,7 @@
         <v>793</v>
       </c>
       <c r="E392" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F392" s="0" t="n">
         <v>1</v>
@@ -19903,7 +19903,7 @@
         <v>801</v>
       </c>
       <c r="E396" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F396" s="0" t="n">
         <v>1</v>
@@ -20055,7 +20055,7 @@
         <v>809</v>
       </c>
       <c r="E400" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F400" s="0" t="n">
         <v>0.857142857142857</v>
@@ -20359,7 +20359,7 @@
         <v>825</v>
       </c>
       <c r="E408" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F408" s="0" t="n">
         <v>1</v>
@@ -20435,7 +20435,7 @@
         <v>829</v>
       </c>
       <c r="E410" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F410" s="0" t="n">
         <v>1</v>
@@ -20511,7 +20511,7 @@
         <v>833</v>
       </c>
       <c r="E412" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F412" s="0" t="n">
         <v>1</v>
@@ -20625,7 +20625,7 @@
         <v>839</v>
       </c>
       <c r="E415" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F415" s="0" t="n">
         <v>1</v>
@@ -20663,7 +20663,7 @@
         <v>841</v>
       </c>
       <c r="E416" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F416" s="0" t="n">
         <v>0.888888888888889</v>
@@ -20929,7 +20929,7 @@
         <v>855</v>
       </c>
       <c r="E423" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F423" s="0" t="n">
         <v>1</v>
@@ -21005,7 +21005,7 @@
         <v>859</v>
       </c>
       <c r="E425" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F425" s="0" t="n">
         <v>1</v>
@@ -21119,7 +21119,7 @@
         <v>865</v>
       </c>
       <c r="E428" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F428" s="0" t="n">
         <v>1</v>
@@ -21195,7 +21195,7 @@
         <v>869</v>
       </c>
       <c r="E430" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F430" s="0" t="n">
         <v>1</v>
@@ -21309,7 +21309,7 @@
         <v>875</v>
       </c>
       <c r="E433" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F433" s="0" t="n">
         <v>1</v>
@@ -21347,7 +21347,7 @@
         <v>877</v>
       </c>
       <c r="E434" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F434" s="0" t="n">
         <v>1</v>
@@ -21423,7 +21423,7 @@
         <v>881</v>
       </c>
       <c r="E436" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F436" s="0" t="n">
         <v>1</v>
@@ -21575,7 +21575,7 @@
         <v>889</v>
       </c>
       <c r="E440" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F440" s="0" t="n">
         <v>1</v>
@@ -21727,7 +21727,7 @@
         <v>897</v>
       </c>
       <c r="E444" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F444" s="0" t="n">
         <v>0.846153846153846</v>
@@ -21917,7 +21917,7 @@
         <v>907</v>
       </c>
       <c r="E449" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F449" s="0" t="n">
         <v>1</v>
@@ -21993,7 +21993,7 @@
         <v>911</v>
       </c>
       <c r="E451" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F451" s="0" t="n">
         <v>0.75</v>
@@ -22145,7 +22145,7 @@
         <v>919</v>
       </c>
       <c r="E455" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F455" s="0" t="n">
         <v>1</v>
@@ -22183,7 +22183,7 @@
         <v>921</v>
       </c>
       <c r="E456" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F456" s="0" t="n">
         <v>0.714285714285714</v>
@@ -22411,7 +22411,7 @@
         <v>933</v>
       </c>
       <c r="E462" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F462" s="0" t="n">
         <v>1</v>
@@ -22715,7 +22715,7 @@
         <v>949</v>
       </c>
       <c r="E470" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F470" s="0" t="n">
         <v>1</v>
@@ -22829,7 +22829,7 @@
         <v>955</v>
       </c>
       <c r="E473" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F473" s="0" t="n">
         <v>1</v>
@@ -22905,7 +22905,7 @@
         <v>959</v>
       </c>
       <c r="E475" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F475" s="0" t="n">
         <v>1</v>
@@ -23019,7 +23019,7 @@
         <v>965</v>
       </c>
       <c r="E478" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F478" s="0" t="n">
         <v>0.833333333333333</v>
@@ -23209,7 +23209,7 @@
         <v>975</v>
       </c>
       <c r="E483" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F483" s="0" t="n">
         <v>1</v>
@@ -23475,7 +23475,7 @@
         <v>989</v>
       </c>
       <c r="E490" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F490" s="0" t="n">
         <v>1</v>
@@ -23969,7 +23969,7 @@
         <v>1015</v>
       </c>
       <c r="E503" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F503" s="0" t="n">
         <v>1</v>
@@ -24539,7 +24539,7 @@
         <v>1045</v>
       </c>
       <c r="E518" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F518" s="0" t="n">
         <v>1</v>
@@ -24577,7 +24577,7 @@
         <v>1047</v>
       </c>
       <c r="E519" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F519" s="0" t="n">
         <v>1</v>
@@ -25413,7 +25413,7 @@
         <v>1091</v>
       </c>
       <c r="E541" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F541" s="0" t="n">
         <v>1</v>
@@ -25603,7 +25603,7 @@
         <v>1101</v>
       </c>
       <c r="E546" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F546" s="0" t="n">
         <v>1</v>
@@ -25641,7 +25641,7 @@
         <v>1103</v>
       </c>
       <c r="E547" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F547" s="0" t="n">
         <v>1</v>
@@ -25945,7 +25945,7 @@
         <v>1119</v>
       </c>
       <c r="E555" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F555" s="0" t="n">
         <v>0.875</v>
@@ -26363,7 +26363,7 @@
         <v>1141</v>
       </c>
       <c r="E566" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F566" s="0" t="n">
         <v>1</v>
@@ -26477,7 +26477,7 @@
         <v>1147</v>
       </c>
       <c r="E569" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F569" s="0" t="n">
         <v>0.8</v>
@@ -26933,7 +26933,7 @@
         <v>1171</v>
       </c>
       <c r="E581" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F581" s="0" t="n">
         <v>1</v>
@@ -27123,7 +27123,7 @@
         <v>1181</v>
       </c>
       <c r="E586" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F586" s="0" t="n">
         <v>1</v>
@@ -27275,7 +27275,7 @@
         <v>1189</v>
       </c>
       <c r="E590" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F590" s="0" t="n">
         <v>1</v>
@@ -27503,7 +27503,7 @@
         <v>1201</v>
       </c>
       <c r="E596" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F596" s="0" t="n">
         <v>1</v>
@@ -27655,7 +27655,7 @@
         <v>1209</v>
       </c>
       <c r="E600" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F600" s="0" t="n">
         <v>1</v>
@@ -27845,7 +27845,7 @@
         <v>1219</v>
       </c>
       <c r="E605" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F605" s="0" t="n">
         <v>1</v>
@@ -27921,7 +27921,7 @@
         <v>1223</v>
       </c>
       <c r="E607" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F607" s="0" t="n">
         <v>1</v>
@@ -28871,7 +28871,7 @@
         <v>1273</v>
       </c>
       <c r="E632" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F632" s="0" t="n">
         <v>1</v>
@@ -29213,7 +29213,7 @@
         <v>1291</v>
       </c>
       <c r="E641" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F641" s="0" t="n">
         <v>1</v>
@@ -29593,7 +29593,7 @@
         <v>1311</v>
       </c>
       <c r="E651" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F651" s="0" t="n">
         <v>1</v>
@@ -29631,7 +29631,7 @@
         <v>1313</v>
       </c>
       <c r="E652" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F652" s="0" t="n">
         <v>1</v>
@@ -29669,7 +29669,7 @@
         <v>1315</v>
       </c>
       <c r="E653" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F653" s="0" t="n">
         <v>1</v>
@@ -29897,7 +29897,7 @@
         <v>1327</v>
       </c>
       <c r="E659" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F659" s="0" t="n">
         <v>1</v>
@@ -30391,7 +30391,7 @@
         <v>1353</v>
       </c>
       <c r="E672" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F672" s="0" t="n">
         <v>1</v>
@@ -30467,7 +30467,7 @@
         <v>1357</v>
       </c>
       <c r="E674" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F674" s="0" t="n">
         <v>1</v>
@@ -30657,7 +30657,7 @@
         <v>1367</v>
       </c>
       <c r="E679" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F679" s="0" t="n">
         <v>1</v>
@@ -30771,7 +30771,7 @@
         <v>1373</v>
       </c>
       <c r="E682" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F682" s="0" t="n">
         <v>1</v>
@@ -30847,7 +30847,7 @@
         <v>1377</v>
       </c>
       <c r="E684" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F684" s="0" t="n">
         <v>1</v>
@@ -31037,7 +31037,7 @@
         <v>1387</v>
       </c>
       <c r="E689" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F689" s="0" t="n">
         <v>1</v>
@@ -31075,7 +31075,7 @@
         <v>1389</v>
       </c>
       <c r="E690" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F690" s="0" t="n">
         <v>1</v>
@@ -31189,7 +31189,7 @@
         <v>1395</v>
       </c>
       <c r="E693" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F693" s="0" t="n">
         <v>1</v>
@@ -31227,7 +31227,7 @@
         <v>1397</v>
       </c>
       <c r="E694" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F694" s="0" t="n">
         <v>1</v>
@@ -31265,7 +31265,7 @@
         <v>1399</v>
       </c>
       <c r="E695" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F695" s="0" t="n">
         <v>1</v>
@@ -31303,7 +31303,7 @@
         <v>1401</v>
       </c>
       <c r="E696" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F696" s="0" t="n">
         <v>1</v>
@@ -31417,7 +31417,7 @@
         <v>1407</v>
       </c>
       <c r="E699" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F699" s="0" t="n">
         <v>1</v>
@@ -31493,7 +31493,7 @@
         <v>1411</v>
       </c>
       <c r="E701" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F701" s="0" t="n">
         <v>1</v>
@@ -31645,7 +31645,7 @@
         <v>1419</v>
       </c>
       <c r="E705" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F705" s="0" t="n">
         <v>1</v>
@@ -32519,7 +32519,7 @@
         <v>1465</v>
       </c>
       <c r="E728" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F728" s="0" t="n">
         <v>1</v>
@@ -32633,7 +32633,7 @@
         <v>1471</v>
       </c>
       <c r="E731" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F731" s="0" t="n">
         <v>1</v>
@@ -32785,7 +32785,7 @@
         <v>1479</v>
       </c>
       <c r="E735" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F735" s="0" t="n">
         <v>1</v>
@@ -32823,7 +32823,7 @@
         <v>1481</v>
       </c>
       <c r="E736" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F736" s="0" t="n">
         <v>1</v>
@@ -32975,7 +32975,7 @@
         <v>1489</v>
       </c>
       <c r="E740" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F740" s="0" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         <v>1499</v>
       </c>
       <c r="E745" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F745" s="0" t="n">
         <v>1</v>
@@ -33469,7 +33469,7 @@
         <v>1515</v>
       </c>
       <c r="E753" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F753" s="0" t="n">
         <v>1</v>
@@ -33583,7 +33583,7 @@
         <v>1521</v>
       </c>
       <c r="E756" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F756" s="0" t="n">
         <v>1</v>
@@ -33659,7 +33659,7 @@
         <v>1525</v>
       </c>
       <c r="E758" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F758" s="0" t="n">
         <v>1</v>
@@ -33735,7 +33735,7 @@
         <v>1529</v>
       </c>
       <c r="E760" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F760" s="0" t="n">
         <v>1</v>
@@ -33887,7 +33887,7 @@
         <v>1537</v>
       </c>
       <c r="E764" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F764" s="0" t="n">
         <v>1</v>
@@ -34077,7 +34077,7 @@
         <v>1547</v>
       </c>
       <c r="E769" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F769" s="0" t="n">
         <v>1</v>
@@ -34153,7 +34153,7 @@
         <v>1551</v>
       </c>
       <c r="E771" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F771" s="0" t="n">
         <v>1</v>
@@ -34381,7 +34381,7 @@
         <v>1563</v>
       </c>
       <c r="E777" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F777" s="0" t="n">
         <v>1</v>
@@ -34419,7 +34419,7 @@
         <v>1565</v>
       </c>
       <c r="E778" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F778" s="0" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         <v>1571</v>
       </c>
       <c r="E781" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F781" s="0" t="n">
         <v>1</v>
@@ -34571,7 +34571,7 @@
         <v>1573</v>
       </c>
       <c r="E782" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F782" s="0" t="n">
         <v>1</v>
@@ -34609,7 +34609,7 @@
         <v>1575</v>
       </c>
       <c r="E783" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F783" s="0" t="n">
         <v>1</v>
@@ -34689,8 +34689,8 @@
   </sheetPr>
   <dimension ref="A1:L784"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="186" sqref="E2 E4:E7 E9:E10 E14:E15 E18 E21:E24 E28:E29 E36 E38:E41 E44:E45 E47 E52 E54:E55 E57:E58 E61:E63 E65 E67:E68 E70 E72:E74 E77:E83 E90:E91 E94 E96 E101:E103 E107 E109:E110 E117 E120:E123 E127 E129:E130 E133:E134 E137:E140 E142:E144 E147:E150 E152:E154 E156 E158 E162 E165:E171 E174:E176 E178:E179 E183 E185:E186 E188 E190:E195 E202 E204 E206 E210 E212 E214 E216:E218 E220:E223 E225 E228 E231:E232 E241:E242 E246:E247 E249 E252 E256 E261 E264:E265 E267 E269:E270 E272:E273 E275 E278:E281 E283:E284 E286:E287 E290 E293 E296 E298:E299 E301 E303 E306:E308 E310:E312 E317 E320:E321 E323:E324 E330:E333 E337 E345 E347:E348 E352 E359 E367:E368 E372:E373 E377 E390:E391 E396:E397 E404 E410 E412:E415 E418 E420 E422 E425:E426 E430 E432:E433 E435 E439:E440 E447:E449 E455:E457 E459 E462 E464 E466 E468 E470 E472:E473 E480 E483 E486 E490 E492:E493 E497:E498 E502:E503 E510:E513 E516 E523:E524 E529:E530 E534 E539:E541 E543 E545:E547 E550 E552:E554 E556 E559 E563:E566 E568:E570 E577:E578 E581 E587 E589:E591 E595:E596 E598:E600 E607:E609 E611 E613:E614 E616:E617 E625 E628 E631 E633 E644:E645 E651:E653 E655:E657 E659 E662 E666 E668 E670 E673 E676:E679 E681:E682 E684 E689:E691 E694 E696 E698 E705:E706 E711 E718 E720 E722 E724 E734:E735 E737:E739 E741 E743 E746:E747 E749 E754 E756 E758 E761 E764 E767 E769 E772 E774 E778 E780:E783 E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
